--- a/data/trans_camb/P43C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Edad-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.455370358957607</v>
+        <v>6.229321018483438</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.633537485837214</v>
+        <v>10.27619352810592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.91966816396153</v>
+        <v>-17.23290830162858</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.71990718545739</v>
+        <v>18.10389146541458</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.34405975001884</v>
+        <v>22.99172428180546</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.447109021251131</v>
+        <v>-3.479009161609227</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2219160406224552</v>
+        <v>0.211901425362667</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3274939717755364</v>
+        <v>0.3400073303202549</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6090507263060612</v>
+        <v>-0.6240134191778288</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7797441796827311</v>
+        <v>0.7549104082816256</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9333218449999006</v>
+        <v>0.9573813097855448</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1414487060241202</v>
+        <v>-0.1391118110833491</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>4.625154904540086</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-10.83894019344804</v>
+        <v>-10.83894019344805</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.250024772380335</v>
+        <v>6.288246921255867</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7671457994689784</v>
+        <v>-0.6873368779502229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.68472867931229</v>
+        <v>-18.00137960811457</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.0315240526184</v>
+        <v>16.88277302804014</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.32361328143709</v>
+        <v>9.965147793774667</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.314386568757979</v>
+        <v>-4.371713431104729</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.07356563126960303</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1723993020951084</v>
+        <v>-0.1723993020951086</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.09725503753464131</v>
+        <v>0.09861713686763945</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.0100001476295585</v>
+        <v>-0.01114339714655098</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2737561864300488</v>
+        <v>-0.2761249933122421</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2903390758644127</v>
+        <v>0.2876863661789466</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1730472283969908</v>
+        <v>0.1663137341664612</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.07260489939489403</v>
+        <v>-0.07491232216575607</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>7.176963650207524</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.237470070076021</v>
+        <v>-3.237470070076043</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.674933106497243</v>
+        <v>5.28886670708067</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.631746407250868</v>
+        <v>2.701244987328561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.654799360689003</v>
+        <v>-8.303190690987053</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.50846316849413</v>
+        <v>14.25036669780254</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.87299446285601</v>
+        <v>12.01763374639149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.815524457306342</v>
+        <v>1.934028874901926</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.1001029142119486</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.04515561238480011</v>
+        <v>-0.04515561238480041</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06328936883769302</v>
+        <v>0.06990272820924069</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.03553840868203715</v>
+        <v>0.03680821391820234</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1174143140271437</v>
+        <v>-0.1138061561352138</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2113248377224748</v>
+        <v>0.2052112736053848</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1715017506433737</v>
+        <v>0.174219397732408</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.02671742505918703</v>
+        <v>0.02770022270430974</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.555501477723374</v>
+        <v>2.443955478098113</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2391382696825041</v>
+        <v>-1.000351351501549</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.755822987717286</v>
+        <v>-1.974556005606947</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.17054422730357</v>
+        <v>12.68471641665822</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.515454724355036</v>
+        <v>9.456571225677328</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.081786997186107</v>
+        <v>8.027710589223071</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03400458982533517</v>
+        <v>0.03154514441139158</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.003859912692802437</v>
+        <v>-0.01313916506730971</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02372464202436793</v>
+        <v>-0.02622015075716177</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1882127865712458</v>
+        <v>0.1832550279574897</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1366377361820764</v>
+        <v>0.1364188059899568</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1164159655369903</v>
+        <v>0.1153552374804834</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.511007356272927</v>
+        <v>7.909722910680435</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.720019811911392</v>
+        <v>4.131004038575799</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.655004289496897</v>
+        <v>7.909687679645788</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>21.59954428580411</v>
+        <v>21.17896639146458</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.27908777012115</v>
+        <v>16.93375920209566</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20.19298709251784</v>
+        <v>20.07553262805587</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1387977929790354</v>
+        <v>0.1314928666952385</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.06172924290110576</v>
+        <v>0.06981384903752512</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1432160836058962</v>
+        <v>0.1278970245141782</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4085441752857832</v>
+        <v>0.4000119775839888</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3261698942182934</v>
+        <v>0.3223311296185755</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3965522704035344</v>
+        <v>0.3785640768912791</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>5.379433443778067</v>
+        <v>5.233755700965522</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>11.72841965819097</v>
+        <v>12.15062834958092</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16.97368469747416</v>
+        <v>17.2030498734831</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>19.84819652592571</v>
+        <v>19.87333232346073</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>26.58340091472177</v>
+        <v>25.98103442778156</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>29.40310723124978</v>
+        <v>29.35962348113694</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1269024406630906</v>
+        <v>0.1178211835293102</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.284075814607816</v>
+        <v>0.287408545511898</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3941923922720241</v>
+        <v>0.3999307323598459</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5603255154523267</v>
+        <v>0.5492847260633248</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7600238048179911</v>
+        <v>0.751561154459413</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.8464383172562027</v>
+        <v>0.8466910336385221</v>
       </c>
     </row>
     <row r="40">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.697841875697129</v>
+        <v>1.854042536337688</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>7.655023505122184</v>
+        <v>7.385406968225006</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>17.97733611668757</v>
+        <v>16.90929013586046</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>16.36640189673171</v>
+        <v>15.58828099906576</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.3490980545204</v>
+        <v>22.33675874441671</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>30.47557522147363</v>
+        <v>29.39609944802384</v>
       </c>
     </row>
     <row r="43">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.08928461130319093</v>
+        <v>0.07728438424285981</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.3178787966085219</v>
+        <v>0.309595261893895</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.7312888837399217</v>
+        <v>0.6956603986007684</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9804596905272753</v>
+        <v>0.9256748227614828</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.36529506716913</v>
+        <v>1.377848246735151</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.873290556711049</v>
+        <v>1.871922866455106</v>
       </c>
     </row>
     <row r="46">
@@ -1332,7 +1332,7 @@
         <v>10.12982314866326</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4.125622070014656</v>
+        <v>4.125622070014678</v>
       </c>
     </row>
     <row r="47">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>9.092975109721765</v>
+        <v>8.864021570546768</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>7.649677765579457</v>
+        <v>7.806126068716432</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.667406083853536</v>
+        <v>1.901414407845475</v>
       </c>
     </row>
     <row r="48">
@@ -1360,13 +1360,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>13.78703806696256</v>
+        <v>13.72363058324445</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>12.48839315476545</v>
+        <v>12.57443810622653</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.427401105745903</v>
+        <v>6.588710533218897</v>
       </c>
     </row>
     <row r="49">
@@ -1383,7 +1383,7 @@
         <v>0.1882450504313919</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.0766674721989847</v>
+        <v>0.07666747219898512</v>
       </c>
     </row>
     <row r="50">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1647568049499387</v>
+        <v>0.1610446486117809</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1368473887847866</v>
+        <v>0.142002989224116</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.02834159334627471</v>
+        <v>0.0343890615218664</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2625267875723992</v>
+        <v>0.2636500202367475</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2368472026579822</v>
+        <v>0.2407013276082582</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1203176310351107</v>
+        <v>0.1259029766817781</v>
       </c>
     </row>
     <row r="52">
